--- a/Jon_Updates/Test_problem_Metric_Tracker.xlsx
+++ b/Jon_Updates/Test_problem_Metric_Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - University of Maryland\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - University of Maryland\Desktop\ENME625-main\Jon_Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FA44A3-6914-4361-A77D-F8740C35FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E075D1-F0DF-4694-B9CE-72D1ABD230C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21135" yWindow="3900" windowWidth="17280" windowHeight="9960" xr2:uid="{9D2D53FE-98E6-4585-A8CF-DEF1D5E0A9EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9D2D53FE-98E6-4585-A8CF-DEF1D5E0A9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Metric Data" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Test Problem</t>
   </si>
@@ -94,12 +94,39 @@
   <si>
     <t>TNK Box Plots Weird</t>
   </si>
+  <si>
+    <t>Test Problem Quality Metric Tracker (MATLAB's  MOGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># GA Run Insight </t>
+  </si>
+  <si>
+    <t># GA Runs</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SD Mean</t>
+  </si>
+  <si>
+    <t>Our MOGA</t>
+  </si>
+  <si>
+    <t>Matlab MOGA</t>
+  </si>
+  <si>
+    <t>Cluster Metric</t>
+  </si>
+  <si>
+    <t>Calls Per Pareto Point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +134,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +169,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -277,26 +355,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,12 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,6 +526,106 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,7 +644,873 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metric Data'!$C$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.703999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.321999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52A5-40B9-85C6-8B9A0D6D91EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="706042895"/>
+        <c:axId val="706069775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="706042895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706069775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="706069775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706042895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B608667-A499-5E05-5F3A-A8D6A1EE8696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -538,16 +1697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -577,8 +1736,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4733925" y="5248275"/>
-          <a:ext cx="5324475" cy="3952875"/>
+          <a:off x="2082165" y="5509260"/>
+          <a:ext cx="5324475" cy="3992880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF09A3B-905A-A480-B984-F3B3545691E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7840980" y="5562600"/>
+          <a:ext cx="5326380" cy="3992880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,7 +1820,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -726,16 +1946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -765,8 +1985,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3648075" y="4953000"/>
-          <a:ext cx="5324475" cy="3952875"/>
+          <a:off x="1956435" y="5339715"/>
+          <a:ext cx="5324475" cy="3994785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -846,10 +2066,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BB728D-1EF1-BF45-A1C0-C4E25B3F94A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7894320" y="5097780"/>
+          <a:ext cx="5326380" cy="3992880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1034,10 +2315,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBCFE12-CEA8-89A2-1767-EF26C4D8DDBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4610100" y="4930140"/>
+          <a:ext cx="5326380" cy="3992880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1102,16 +2444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1141,8 +2483,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4572000" y="4724400"/>
-          <a:ext cx="5324475" cy="3952875"/>
+          <a:off x="1394460" y="5002530"/>
+          <a:ext cx="5324475" cy="3992880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,30 +2625,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>421005</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95A5702-E553-E468-C937-C3CFD096F5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66AFD21-2B89-2D11-505D-565DF86B635D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +2652,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1329,8 +2666,74 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4236720" y="4229100"/>
-          <a:ext cx="5328285" cy="3949065"/>
+          <a:off x="7254240" y="5318760"/>
+          <a:ext cx="5326380" cy="3992880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95A5702-E553-E468-C937-C3CFD096F5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1562100" y="4730115"/>
+          <a:ext cx="5328285" cy="3990975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1532,10 +2935,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E4F4D3-1054-4571-3376-B164A59A6598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7452360" y="4686300"/>
+          <a:ext cx="5326380" cy="3992880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1600,16 +3064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1639,8 +3103,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5086350" y="4314825"/>
-          <a:ext cx="5324475" cy="3952875"/>
+          <a:off x="1954530" y="4831080"/>
+          <a:ext cx="5324475" cy="3994785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1763,6 +3227,67 @@
         <a:xfrm>
           <a:off x="5324475" y="720090"/>
           <a:ext cx="4580956" cy="3400425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6787B376-E1CA-476A-A063-F358318819F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="4884420"/>
+          <a:ext cx="5326380" cy="3992880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33335090-D93F-4FD9-969B-AE440DB5A418}">
-  <dimension ref="B2:L25"/>
+  <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2097,58 +3622,104 @@
     <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="17.21875" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="16" max="17" width="14.21875" customWidth="1"/>
+    <col min="18" max="18" width="1.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="1.21875" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="48"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="48"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="O4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="41"/>
+      <c r="S4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="41"/>
+      <c r="V4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <f>2.0147*10^4</f>
         <v>20147</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2">
@@ -2156,7 +3727,7 @@
         <v>14201.999999999998</v>
       </c>
       <c r="H5" s="2">
-        <f>G5/C5</f>
+        <f t="shared" ref="H5:H10" si="0">G5/C5</f>
         <v>0.70491884647838376</v>
       </c>
       <c r="I5" s="2">
@@ -2165,25 +3736,54 @@
       <c r="J5" s="2">
         <v>1537</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>295</v>
       </c>
+      <c r="O5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="36">
+        <f>ROUND(H5,3)</f>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="Q5" s="37">
+        <f>ROUND(G16,3)</f>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="R5" s="41"/>
+      <c r="S5" s="38">
+        <f>ROUND(I5,2)</f>
+        <v>5.27</v>
+      </c>
+      <c r="T5" s="39">
+        <f>ROUND(I16,2)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U5" s="41"/>
+      <c r="V5" s="36">
+        <f>J5</f>
+        <v>1537</v>
+      </c>
+      <c r="W5" s="37">
+        <f>J16</f>
+        <v>626</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>1.7408999999999999</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>0.74150000000000005</v>
       </c>
       <c r="H6" s="2">
-        <f>G6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.42592911712332709</v>
       </c>
       <c r="I6" s="2">
@@ -2192,25 +3792,54 @@
       <c r="J6" s="2">
         <v>3102</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>141</v>
       </c>
+      <c r="O6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="36">
+        <f>ROUND(H6,3)</f>
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="Q6" s="37">
+        <f t="shared" ref="Q6:Q10" si="1">ROUND(G17,3)</f>
+        <v>0.61</v>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="38">
+        <f>ROUND(I6,2)</f>
+        <v>2.1</v>
+      </c>
+      <c r="T6" s="39">
+        <f t="shared" ref="T6:T10" si="2">ROUND(I17,2)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U6" s="41"/>
+      <c r="V6" s="36">
+        <f t="shared" ref="V6:V10" si="3">J6</f>
+        <v>3102</v>
+      </c>
+      <c r="W6" s="37">
+        <f t="shared" ref="W6:W10" si="4">J17</f>
+        <v>318</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>1.0173000000000001</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>0.93440000000000001</v>
       </c>
       <c r="H7" s="2">
-        <f>G7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.91850978079229328</v>
       </c>
       <c r="I7" s="2">
@@ -2219,28 +3848,57 @@
       <c r="J7" s="2">
         <v>3396</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>108</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
+      <c r="O7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="36">
+        <f t="shared" ref="P7:P10" si="5">ROUND(H7,3)</f>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" si="1"/>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="38">
+        <f>ROUND(I7,2)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T7" s="39">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="U7" s="41"/>
+      <c r="V7" s="36">
+        <f t="shared" si="3"/>
+        <v>3396</v>
+      </c>
+      <c r="W7" s="37">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>2.6349</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>1.1489</v>
       </c>
       <c r="H8" s="2">
-        <f>G8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.43603172795931533</v>
       </c>
       <c r="I8" s="2">
@@ -2249,25 +3907,54 @@
       <c r="J8" s="2">
         <v>11344</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>64</v>
       </c>
+      <c r="O8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="36">
+        <f t="shared" si="5"/>
+        <v>0.436</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
+      </c>
+      <c r="R8" s="41"/>
+      <c r="S8" s="36">
+        <f>ROUND(I8,2)</f>
+        <v>1.01</v>
+      </c>
+      <c r="T8" s="37">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="U8" s="41"/>
+      <c r="V8" s="36">
+        <f t="shared" si="3"/>
+        <v>11344</v>
+      </c>
+      <c r="W8" s="37">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="2">
         <v>0.94020000000000004</v>
       </c>
       <c r="H9" s="2">
-        <f>G9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.95548780487804885</v>
       </c>
       <c r="I9" s="2">
@@ -2276,25 +3963,54 @@
       <c r="J9" s="2">
         <v>12306</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>59</v>
       </c>
+      <c r="O9" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="38">
+        <f t="shared" si="5"/>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Q9" s="39">
+        <f t="shared" si="1"/>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="36">
+        <f>ROUND(I9,2)</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="37">
+        <f t="shared" si="2"/>
+        <v>1.01</v>
+      </c>
+      <c r="U9" s="41"/>
+      <c r="V9" s="36">
+        <f t="shared" si="3"/>
+        <v>12306</v>
+      </c>
+      <c r="W9" s="37">
+        <f t="shared" si="4"/>
+        <v>843</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>3.4725999999999999</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>1.5367999999999999</v>
       </c>
       <c r="H10" s="2">
-        <f>G10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.44255025053274205</v>
       </c>
       <c r="I10" s="2">
@@ -2303,27 +4019,56 @@
       <c r="J10" s="2">
         <v>8643</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="4">
         <v>84</v>
       </c>
+      <c r="O10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="42">
+        <f t="shared" si="5"/>
+        <v>0.443</v>
+      </c>
+      <c r="Q10" s="43">
+        <f t="shared" si="1"/>
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="R10" s="44"/>
+      <c r="S10" s="45">
+        <f>ROUND(I10,2)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="T10" s="46">
+        <f t="shared" si="2"/>
+        <v>1.06</v>
+      </c>
+      <c r="U10" s="44"/>
+      <c r="V10" s="42">
+        <f t="shared" si="3"/>
+        <v>8643</v>
+      </c>
+      <c r="W10" s="43">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>1.0173000000000001</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" s="1"/>
@@ -2333,7 +4078,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="F13" s="1"/>
@@ -2343,79 +4088,153 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="F14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="F15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="2">
+        <v>1.111</v>
+      </c>
+      <c r="J16" s="2">
+        <v>626</v>
+      </c>
+      <c r="K16" s="4">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="2">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>318</v>
+      </c>
+      <c r="K17" s="4">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="J18" s="2">
+        <v>284</v>
+      </c>
+      <c r="K18" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="2">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <v>500</v>
+      </c>
+      <c r="K19" s="4">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="2">
+        <v>1.0145</v>
+      </c>
+      <c r="J20" s="2">
+        <v>843</v>
+      </c>
+      <c r="K20" s="4">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="2">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>303</v>
+      </c>
+      <c r="K21" s="4">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F22" s="1"/>
@@ -2426,36 +4245,200 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="B23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="B24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="23">
+        <v>2</v>
+      </c>
+      <c r="D24" s="23">
+        <v>4</v>
+      </c>
+      <c r="E24" s="23">
+        <v>6</v>
+      </c>
+      <c r="F24" s="23">
+        <v>8</v>
+      </c>
+      <c r="G24" s="23">
+        <v>10</v>
+      </c>
+      <c r="H24" s="23">
+        <v>12</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="B25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="24">
+        <v>49.86</v>
+      </c>
+      <c r="D25" s="24">
+        <v>81.77</v>
+      </c>
+      <c r="E25" s="24">
+        <v>56.84</v>
+      </c>
+      <c r="F25" s="24">
+        <v>65.53</v>
+      </c>
+      <c r="G25" s="24">
+        <v>51.04</v>
+      </c>
+      <c r="H25" s="24">
+        <v>56.04</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="24">
+        <v>69.36</v>
+      </c>
+      <c r="D26" s="24">
+        <v>50.52</v>
+      </c>
+      <c r="E26" s="24">
+        <v>60.16</v>
+      </c>
+      <c r="F26" s="24">
+        <v>57.27</v>
+      </c>
+      <c r="G26" s="24">
+        <v>60.21</v>
+      </c>
+      <c r="H26" s="24">
+        <v>50.87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="30"/>
+      <c r="C27" s="24">
+        <v>59.92</v>
+      </c>
+      <c r="D27" s="24">
+        <v>68.95</v>
+      </c>
+      <c r="E27" s="24">
+        <v>64.25</v>
+      </c>
+      <c r="F27" s="24">
+        <v>54.47</v>
+      </c>
+      <c r="G27" s="24">
+        <v>48.65</v>
+      </c>
+      <c r="H27" s="24">
+        <v>45.56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="30"/>
+      <c r="C28" s="24">
+        <v>45.63</v>
+      </c>
+      <c r="D28" s="24">
+        <v>53.04</v>
+      </c>
+      <c r="E28" s="24">
+        <v>56.23</v>
+      </c>
+      <c r="F28" s="24">
+        <v>51.45</v>
+      </c>
+      <c r="G28" s="24">
+        <v>44.72</v>
+      </c>
+      <c r="H28" s="24">
+        <v>42.6</v>
+      </c>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="31"/>
+      <c r="C29" s="24">
+        <v>73.5</v>
+      </c>
+      <c r="D29" s="24">
+        <v>52.94</v>
+      </c>
+      <c r="E29" s="24">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="F29" s="24">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="G29" s="24">
+        <v>46.43</v>
+      </c>
+      <c r="H29" s="24">
+        <v>51.54</v>
+      </c>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="26">
+        <f>AVERAGE(C25:C29)</f>
+        <v>59.653999999999996</v>
+      </c>
+      <c r="D30" s="26">
+        <f>AVERAGE(D25:D29)</f>
+        <v>61.444000000000003</v>
+      </c>
+      <c r="E30" s="26">
+        <f>AVERAGE(E25:E29)</f>
+        <v>60.703999999999994</v>
+      </c>
+      <c r="F30" s="26">
+        <f>AVERAGE(F25:F29)</f>
+        <v>53.570000000000007</v>
+      </c>
+      <c r="G30" s="26">
+        <f>AVERAGE(G25:G29)</f>
+        <v>50.21</v>
+      </c>
+      <c r="H30" s="26">
+        <f>AVERAGE(H25:H29)</f>
+        <v>49.321999999999996</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="B23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2463,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D582486-94C0-4207-BF55-2ECAC79F5C8D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,7 +4462,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2493,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA46D41-32BF-4B6D-9C23-83D4F53EC269}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2508,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBFF0ED-91FF-4A8A-8D50-D39AE0E3875F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228ECCEE-8305-42A4-9118-75BA3516B6B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2538,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED503F88-90D0-41E9-BB5A-A746B6B617D8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
